--- a/CVNA.xlsx
+++ b/CVNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479824C9-2838-4D2F-BBED-66214C30F323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176434A-8660-4F2C-A617-C5D76006448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="3820" windowWidth="16050" windowHeight="15740" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
+    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Shares</t>
   </si>
@@ -133,13 +133,25 @@
   </si>
   <si>
     <t>EPS</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,9 +166,30 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -178,45 +211,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{9A8547AC-0695-4148-B3B6-444A340EB18E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -547,24 +588,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9534F3-84EB-44A0-AF2C-DE464C798CE3}">
   <dimension ref="L2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,16 +614,16 @@
         <v>206.94350400000002</v>
       </c>
     </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>39526.209264000005</v>
-      </c>
-    </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.25">
+        <v>41802.587808000004</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +632,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,13 +641,13 @@
         <v>5703</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>44622.209264000005</v>
+        <v>46898.587808000004</v>
       </c>
     </row>
   </sheetData>
@@ -618,27 +659,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B3C054-99FF-4927-A84A-EBCDF5ACDC4F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.7265625" style="5"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="8.7109375" style="5"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
@@ -676,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -688,16 +729,20 @@
       <c r="H3" s="8">
         <v>1961</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8">
+        <v>1949</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8">
         <v>2411</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8">
+        <v>2543</v>
+      </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -709,16 +754,20 @@
       <c r="H4" s="8">
         <v>777</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <v>610</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8">
         <v>720</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="8">
+        <v>786</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -730,16 +779,20 @@
       <c r="H5" s="8">
         <v>230</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8">
+        <v>214</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8">
         <v>279</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="8">
+        <v>326</v>
+      </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -752,17 +805,23 @@
         <f>+H5+H4+H3</f>
         <v>2968</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11">
+        <f>+I5+I4+I3</f>
+        <v>2773</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11">
         <f>+L5+L4+L3</f>
         <v>3410</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11">
+        <f>+M5+M4+M3</f>
+        <v>3655</v>
+      </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -774,16 +833,20 @@
       <c r="H7" s="8">
         <v>2695</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <v>2291</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <v>2695</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="8">
+        <v>2848</v>
+      </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
@@ -796,17 +859,23 @@
         <f>+H6-H7</f>
         <v>273</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <f>+I6-I7</f>
+        <v>482</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <f>+L6-L7</f>
         <v>715</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="8">
+        <f>+M6-M7</f>
+        <v>807</v>
+      </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
@@ -818,16 +887,20 @@
       <c r="H9" s="8">
         <v>455</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8">
+        <v>433</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
         <v>455</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8">
+        <v>470</v>
+      </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -840,17 +913,23 @@
         <f>+H8-H9</f>
         <v>-182</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <f>+I8-I9</f>
+        <v>49</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8">
         <f>+L8-L9</f>
         <v>260</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="8">
+        <f>+M8-M9</f>
+        <v>337</v>
+      </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -863,17 +942,21 @@
         <f>-173-1-35</f>
         <v>-209</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8">
+        <v>-153</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
         <f>-173-1-35</f>
         <v>-209</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="8">
+        <v>-157</v>
+      </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
@@ -886,17 +969,23 @@
         <f>+H10+H11</f>
         <v>-391</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <f>+I10+I11</f>
+        <v>-104</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8">
         <f>+L10+L11</f>
         <v>51</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="8">
+        <f>+M10+M11</f>
+        <v>180</v>
+      </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -909,17 +998,21 @@
         <f>1+30</f>
         <v>31</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <v>29</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8">
         <f>1+30</f>
         <v>31</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
@@ -932,17 +1025,23 @@
         <f>+H12-H13</f>
         <v>-422</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8">
+        <f>+I12-I13</f>
+        <v>-133</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8">
         <f>+L12-L13</f>
         <v>20</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8">
+        <f>+M12-M13</f>
+        <v>180</v>
+      </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
@@ -955,17 +1054,23 @@
         <f>+H14/H16</f>
         <v>-3.9728116586017963</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="12">
+        <f>+I14/I16</f>
+        <v>-0.64576272832325032</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="12">
         <f>+L14/L16</f>
         <v>0.1556844276651228</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="12">
+        <f>+M14/M16</f>
+        <v>1.3477593500804912</v>
+      </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
@@ -977,38 +1082,61 @@
       <c r="H16" s="8">
         <v>106.22199999999999</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8">
+        <v>205.958</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8">
         <v>128.465</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="8">
+        <v>133.55500000000001</v>
+      </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="L19" s="6">
         <f>+L6/H6-1</f>
         <v>0.14892183288409711</v>
       </c>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="6">
+        <f>+M6/I6-1</f>
+        <v>0.31806707536963574</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="L26" s="5">
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="L27" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" s="5">
         <f>+L26-L27</f>
         <v>415</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B4EC8B13-5E69-4E39-A092-32DFE93B8D1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CVNA.xlsx
+++ b/CVNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176434A-8660-4F2C-A617-C5D76006448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC6BB5-3E65-44C8-B8B3-6283BE2A4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="1470" windowWidth="25080" windowHeight="18540" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
+    <workbookView xWindow="-16395" yWindow="7575" windowWidth="16485" windowHeight="12930" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Shares</t>
   </si>
@@ -145,19 +145,73 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>36 million auto retail transactions/annually</t>
+  </si>
+  <si>
+    <t>17m SAAR?</t>
+  </si>
+  <si>
+    <t>2.2m vehicles since inception ($63.7B)</t>
+  </si>
+  <si>
+    <t>53000 car inventory</t>
+  </si>
+  <si>
+    <t>DriveTime?</t>
+  </si>
+  <si>
+    <t>Company owns LLC units in Carvana Group.</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Site Visits</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Originations</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Net Origination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -213,40 +267,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -267,6 +332,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926AE8FF-2A60-9E9D-C7A6-78E35B187143}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8323385" y="58615"/>
+          <a:ext cx="0" cy="5018943"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84E69B9-C190-4EA3-950C-873384A6E89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13502054" y="0"/>
+          <a:ext cx="0" cy="7055827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,44 +756,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9534F3-84EB-44A0-AF2C-DE464C798CE3}">
-  <dimension ref="L2:M7"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="12:13" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="3">
-        <f>123.824087+83.119417</f>
-        <v>206.94350400000002</v>
-      </c>
-    </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.2">
+        <f>134.04688+79.119471</f>
+        <v>213.16635099999999</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F4" s="15"/>
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>41802.587808000004</v>
-      </c>
-    </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
+        <v>37304.111424999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,8 +813,14 @@
         <f>542+65</f>
         <v>607</v>
       </c>
-    </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,14 +828,27 @@
         <f>5428+203+72</f>
         <v>5703</v>
       </c>
-    </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>46898.587808000004</v>
+        <v>42400.111424999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -657,29 +858,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B3C054-99FF-4927-A84A-EBCDF5ACDC4F}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="8.7109375" style="5"/>
-    <col min="15" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="18" width="8.7109375" style="5"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
@@ -716,114 +917,153 @@
       <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>7</v>
+      <c r="O2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>+X2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>+Y2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>+Z2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>+AA2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>+AB2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>+AC2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>+AD2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>+AE2+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>1961</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1949</v>
-      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8">
-        <v>2411</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2543</v>
-      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="X3" s="3">
+        <v>412296</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>312847</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>416348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>777</v>
-      </c>
-      <c r="I4" s="8">
-        <v>610</v>
-      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8">
-        <v>720</v>
-      </c>
-      <c r="M4" s="8">
-        <v>786</v>
-      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>9</v>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="Y4" s="3">
+        <v>15819</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>230</v>
-      </c>
-      <c r="I5" s="8">
-        <v>214</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8">
-        <v>279</v>
-      </c>
-      <c r="M5" s="8">
-        <v>326</v>
-      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <f>+H5+H4+H3</f>
-        <v>2968</v>
-      </c>
-      <c r="I6" s="11">
-        <f>+I5+I4+I3</f>
-        <v>2773</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
-        <f>+L5+L4+L3</f>
-        <v>3410</v>
-      </c>
-      <c r="M6" s="11">
-        <f>+M5+M4+M3</f>
-        <v>3655</v>
-      </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="Y5" s="3">
+        <v>33075</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>53360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -831,24 +1071,49 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8">
-        <v>2695</v>
+        <v>1961</v>
       </c>
       <c r="I7" s="8">
-        <v>2291</v>
+        <v>1949</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
-        <v>2695</v>
+        <v>2411</v>
       </c>
       <c r="M7" s="8">
-        <v>2848</v>
+        <v>2543</v>
       </c>
       <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="T7" s="3">
+        <v>1785.0450000000001</v>
+      </c>
+      <c r="U7" s="3">
+        <v>3420.6010000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <v>4741</v>
+      </c>
+      <c r="W7" s="3">
+        <v>9851</v>
+      </c>
+      <c r="X7" s="3">
+        <v>10254</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>7514</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>9681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -856,28 +1121,49 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8">
-        <f>+H6-H7</f>
-        <v>273</v>
+        <v>777</v>
       </c>
       <c r="I8" s="8">
-        <f>+I6-I7</f>
-        <v>482</v>
+        <v>610</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
-        <f>+L6-L7</f>
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M8" s="8">
-        <f>+M6-M7</f>
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="3">
+        <v>73.584000000000003</v>
+      </c>
+      <c r="U8" s="3">
+        <v>267.58600000000001</v>
+      </c>
+      <c r="V8" s="3">
+        <v>445</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1920</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2609</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>2504</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -885,53 +1171,113 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8">
-        <v>455</v>
+        <v>230</v>
       </c>
       <c r="I9" s="8">
-        <v>433</v>
+        <v>214</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
-        <v>455</v>
+        <v>279</v>
       </c>
       <c r="M9" s="8">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <f>+H8-H9</f>
-        <v>-182</v>
-      </c>
-      <c r="I10" s="8">
-        <f>+I8-I9</f>
-        <v>49</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8">
-        <f>+L8-L9</f>
-        <v>260</v>
-      </c>
-      <c r="M10" s="8">
-        <f>+M8-M9</f>
-        <v>337</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="3">
+        <v>96.837999999999994</v>
+      </c>
+      <c r="U9" s="3">
+        <v>251.709</v>
+      </c>
+      <c r="V9" s="3">
+        <v>401</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1043</v>
+      </c>
+      <c r="X9" s="3">
+        <v>741</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>753</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <f>+H9+H8+H7</f>
+        <v>2968</v>
+      </c>
+      <c r="I10" s="11">
+        <f>+I9+I8+I7</f>
+        <v>2773</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11">
+        <f>+L9+L8+L7</f>
+        <v>3410</v>
+      </c>
+      <c r="M10" s="11">
+        <f>+M9+M8+M7</f>
+        <v>3655</v>
+      </c>
+      <c r="N10" s="11">
+        <f>+N9+N8+N7</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="T10" s="9">
+        <f t="shared" ref="T10" si="0">+T9+T8+T7</f>
+        <v>1955.4670000000001</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" ref="U10" si="1">+U9+U8+U7</f>
+        <v>3939.8960000000002</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" ref="V10" si="2">+V9+V8+V7</f>
+        <v>5587</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" ref="W10" si="3">+W9+W8+W7</f>
+        <v>12814</v>
+      </c>
+      <c r="X10" s="9">
+        <f>+X9+X8+X7</f>
+        <v>13604</v>
+      </c>
+      <c r="Y10" s="9">
+        <f>+Y9+Y8+Y7</f>
+        <v>10771</v>
+      </c>
+      <c r="Z10" s="9">
+        <f>+Z9+Z8+Z7</f>
+        <v>13673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -939,26 +1285,49 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8">
-        <f>-173-1-35</f>
-        <v>-209</v>
+        <v>2695</v>
       </c>
       <c r="I11" s="8">
-        <v>-153</v>
+        <v>2291</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
-        <f>-173-1-35</f>
-        <v>-209</v>
+        <v>2695</v>
       </c>
       <c r="M11" s="8">
-        <v>-157</v>
+        <v>2848</v>
       </c>
       <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="3">
+        <v>1758.758</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3433.482</v>
+      </c>
+      <c r="V11" s="3">
+        <v>4793</v>
+      </c>
+      <c r="W11" s="3">
+        <v>10885</v>
+      </c>
+      <c r="X11" s="3">
+        <v>12358</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>9047</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>10797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -966,28 +1335,60 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8">
-        <f>+H10+H11</f>
-        <v>-391</v>
+        <f>+H10-H11</f>
+        <v>273</v>
       </c>
       <c r="I12" s="8">
-        <f>+I10+I11</f>
-        <v>-104</v>
+        <f>+I10-I11</f>
+        <v>482</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8">
-        <f>+L10+L11</f>
-        <v>51</v>
+        <f>+L10-L11</f>
+        <v>715</v>
       </c>
       <c r="M12" s="8">
-        <f>+M10+M11</f>
-        <v>180</v>
+        <f>+M10-M11</f>
+        <v>807</v>
       </c>
       <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="3">
+        <f t="shared" ref="T12" si="4">+T10-T11</f>
+        <v>196.70900000000006</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12" si="5">+U10-U11</f>
+        <v>506.41400000000021</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ref="V12" si="6">+V10-V11</f>
+        <v>794</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" ref="W12" si="7">+W10-W11</f>
+        <v>1929</v>
+      </c>
+      <c r="X12" s="3">
+        <f>+X10-X11</f>
+        <v>1246</v>
+      </c>
+      <c r="Y12" s="3">
+        <f>+Y10-Y11</f>
+        <v>1724</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>+Z10-Z11</f>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -995,26 +1396,49 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8">
-        <f>1+30</f>
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="I13" s="8">
-        <v>29</v>
+        <v>433</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8">
-        <f>1+30</f>
-        <v>31</v>
+        <v>455</v>
       </c>
       <c r="M13" s="8">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="T13" s="3">
+        <v>425.25799999999998</v>
+      </c>
+      <c r="U13" s="3">
+        <v>786.71699999999998</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1126</v>
+      </c>
+      <c r="W13" s="3">
+        <v>2033</v>
+      </c>
+      <c r="X13" s="3">
+        <v>2736</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1796</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1023,56 +1447,111 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8">
         <f>+H12-H13</f>
-        <v>-422</v>
+        <v>-182</v>
       </c>
       <c r="I14" s="8">
         <f>+I12-I13</f>
-        <v>-133</v>
+        <v>49</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8">
         <f>+L12-L13</f>
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="M14" s="8">
         <f>+M12-M13</f>
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="3">
+        <f t="shared" ref="T14" si="8">+T12-T13</f>
+        <v>-228.54899999999992</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" ref="U14" si="9">+U12-U13</f>
+        <v>-280.30299999999977</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" ref="V14" si="10">+V12-V13</f>
+        <v>-332</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" ref="W14" si="11">+W12-W13</f>
+        <v>-104</v>
+      </c>
+      <c r="X14" s="3">
+        <f>+X12-X13</f>
+        <v>-1490</v>
+      </c>
+      <c r="Y14" s="3">
+        <f>+Y12-Y13</f>
+        <v>-72</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>+Z12-Z13</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="12">
-        <f>+H14/H16</f>
-        <v>-3.9728116586017963</v>
-      </c>
-      <c r="I15" s="12">
-        <f>+I14/I16</f>
-        <v>-0.64576272832325032</v>
+      <c r="H15" s="8">
+        <f>-173-1-35</f>
+        <v>-209</v>
+      </c>
+      <c r="I15" s="8">
+        <v>-153</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="12">
-        <f>+L14/L16</f>
-        <v>0.1556844276651228</v>
-      </c>
-      <c r="M15" s="12">
-        <f>+M14/M16</f>
-        <v>1.3477593500804912</v>
+      <c r="L15" s="8">
+        <f>-173-1-35</f>
+        <v>-209</v>
+      </c>
+      <c r="M15" s="8">
+        <v>-157</v>
       </c>
       <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="T15" s="3">
+        <v>-25.018000000000001</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-80.605999999999995</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-131</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-176</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-486</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-632</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1080,57 +1559,589 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8">
-        <v>106.22199999999999</v>
+        <f>+H14+H15</f>
+        <v>-391</v>
       </c>
       <c r="I16" s="8">
-        <v>205.958</v>
+        <f>+I14+I15</f>
+        <v>-104</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8">
+        <f>+L14+L15</f>
+        <v>51</v>
+      </c>
+      <c r="M16" s="8">
+        <f>+M14+M15</f>
+        <v>180</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="8">
+        <f t="shared" ref="T16" si="12">+T14+T15</f>
+        <v>-253.56699999999992</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16" si="13">+U14+U15</f>
+        <v>-360.90899999999976</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" ref="V16" si="14">+V14+V15</f>
+        <v>-463</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" ref="W16" si="15">+W14+W15</f>
+        <v>-280</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" ref="X16:Z16" si="16">+X14+X15</f>
+        <v>-1976</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="16"/>
+        <v>-704</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="16"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <f>1+30</f>
+        <v>31</v>
+      </c>
+      <c r="I17" s="8">
+        <v>29</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <f>1+30</f>
+        <v>31</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <f>+H16-H17</f>
+        <v>-422</v>
+      </c>
+      <c r="I18" s="8">
+        <f>+I16-I17</f>
+        <v>-133</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <f>+L16-L17</f>
+        <v>20</v>
+      </c>
+      <c r="M18" s="8">
+        <f>+M16-M17</f>
+        <v>180</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="T18" s="8">
+        <f t="shared" ref="T18" si="17">+T16-T17</f>
+        <v>-253.56699999999992</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" ref="U18" si="18">+U16-U17</f>
+        <v>-360.90899999999976</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" ref="V18" si="19">+V16-V17</f>
+        <v>-463</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" ref="W18" si="20">+W16-W17</f>
+        <v>-280</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" ref="X18:Z18" si="21">+X16-X17</f>
+        <v>-1976</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="21"/>
+        <v>-704</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" si="21"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12">
+        <f>+H18/H20</f>
+        <v>-3.9728116586017963</v>
+      </c>
+      <c r="I19" s="12">
+        <f>+I18/I20</f>
+        <v>-0.64576272832325032</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="12">
+        <f>+L18/L20</f>
+        <v>0.1556844276651228</v>
+      </c>
+      <c r="M19" s="12">
+        <f>+M18/M20</f>
+        <v>1.3477593500804912</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="T19" s="12">
+        <f t="shared" ref="T19" si="22">+T18/T20</f>
+        <v>-8.440135805345669</v>
+      </c>
+      <c r="U19" s="12">
+        <f t="shared" ref="U19" si="23">+U18/U20</f>
+        <v>-7.7039938523277849</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" ref="V19" si="24">+V18/V20</f>
+        <v>-7.1251596620550632</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" ref="W19" si="25">+W18/W20</f>
+        <v>-3.3814383189420925</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" ref="X19:Z19" si="26">+X18/X20</f>
+        <v>-19.597730789066528</v>
+      </c>
+      <c r="Y19" s="12">
+        <f t="shared" si="26"/>
+        <v>-3.5098565146725962</v>
+      </c>
+      <c r="Z19" s="12">
+        <f t="shared" si="26"/>
+        <v>2.6549475818041541</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <v>106.22199999999999</v>
+      </c>
+      <c r="I20" s="8">
+        <v>205.958</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
         <v>128.465</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M20" s="8">
         <v>133.55500000000001</v>
       </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="T20" s="3">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="U20" s="3">
+        <v>46.847000000000001</v>
+      </c>
+      <c r="V20" s="3">
+        <v>64.980999999999995</v>
+      </c>
+      <c r="W20" s="3">
+        <v>82.805000000000007</v>
+      </c>
+      <c r="X20" s="3">
+        <v>100.828</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>200.578</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>132.20599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="6">
-        <f>+L6/H6-1</f>
+      <c r="L23" s="6">
+        <f>+L10/H10-1</f>
         <v>0.14892183288409711</v>
       </c>
-      <c r="M19" s="6">
-        <f>+M6/I6-1</f>
+      <c r="M23" s="6">
+        <f>+M10/I10-1</f>
         <v>0.31806707536963574</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="U23" s="18">
+        <f t="shared" ref="U23:Z23" si="27">+U10/T10-1</f>
+        <v>1.0148107843292675</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="27"/>
+        <v>0.41805773553413594</v>
+      </c>
+      <c r="W23" s="18">
+        <f t="shared" si="27"/>
+        <v>1.2935385716842669</v>
+      </c>
+      <c r="X23" s="18">
+        <f t="shared" si="27"/>
+        <v>6.1651318869985872E-2</v>
+      </c>
+      <c r="Y23" s="18">
+        <f t="shared" si="27"/>
+        <v>-0.20824757424286977</v>
+      </c>
+      <c r="Z23" s="18">
+        <f>+Z10/Y10-1</f>
+        <v>0.26942716553709034</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="5">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
         <v>455</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="T30" s="3">
+        <v>-414.34</v>
+      </c>
+      <c r="U30" s="3">
+        <v>-757.13400000000001</v>
+      </c>
+      <c r="V30" s="3">
+        <v>-608</v>
+      </c>
+      <c r="W30" s="3">
+        <v>-2594</v>
+      </c>
+      <c r="X30" s="3">
+        <v>-1324</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>803</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="5">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="T31" s="3">
+        <v>-143.66800000000001</v>
+      </c>
+      <c r="U31" s="3">
+        <v>-230.53800000000001</v>
+      </c>
+      <c r="V31" s="3">
+        <v>-360</v>
+      </c>
+      <c r="W31" s="3">
+        <v>-557</v>
+      </c>
+      <c r="X31" s="3">
+        <v>-512</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>-87</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="5">
-        <f>+L26-L27</f>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11">
+        <f>+L30-L31</f>
         <v>415</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="T32" s="9">
+        <f t="shared" ref="T32" si="28">+T30+T31</f>
+        <v>-558.00800000000004</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" ref="U32" si="29">+U30+U31</f>
+        <v>-987.67200000000003</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" ref="V32" si="30">+V30+V31</f>
+        <v>-968</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" ref="W32" si="31">+W30+W31</f>
+        <v>-3151</v>
+      </c>
+      <c r="X32" s="9">
+        <f>+X30+X31</f>
+        <v>-1836</v>
+      </c>
+      <c r="Y32" s="9">
+        <f>+Y30+Y31</f>
+        <v>716</v>
+      </c>
+      <c r="Z32" s="9">
+        <f>+Z30+Z31</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="T34" s="3">
+        <v>-1259.539</v>
+      </c>
+      <c r="U34" s="3">
+        <v>-2625.3510000000001</v>
+      </c>
+      <c r="V34" s="3">
+        <v>-3579</v>
+      </c>
+      <c r="W34" s="3">
+        <v>-7306</v>
+      </c>
+      <c r="X34" s="3">
+        <v>-7214</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>-6041</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>-8329</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="T35" s="3">
+        <v>1633.519</v>
+      </c>
+      <c r="U35" s="3">
+        <v>2643.9119999999998</v>
+      </c>
+      <c r="V35" s="3">
+        <v>3634</v>
+      </c>
+      <c r="W35" s="3">
+        <v>7391</v>
+      </c>
+      <c r="X35" s="3">
+        <v>6297</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>6594</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="T36" s="9">
+        <f t="shared" ref="T36" si="32">+T34+T35</f>
+        <v>373.98</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" ref="U36" si="33">+U34+U35</f>
+        <v>18.560999999999694</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" ref="V36" si="34">+V34+V35</f>
+        <v>55</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" ref="W36" si="35">+W34+W35</f>
+        <v>85</v>
+      </c>
+      <c r="X36" s="9">
+        <f>+X34+X35</f>
+        <v>-917</v>
+      </c>
+      <c r="Y36" s="9">
+        <f>+Y34+Y35</f>
+        <v>553</v>
+      </c>
+      <c r="Z36" s="9">
+        <f>+Z34+Z35</f>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -1138,5 +2149,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B4EC8B13-5E69-4E39-A092-32DFE93B8D1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CVNA.xlsx
+++ b/CVNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CC6BB5-3E65-44C8-B8B3-6283BE2A4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B1EFE-4041-417D-A9A2-1F0122267EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16395" yWindow="7575" windowWidth="16485" windowHeight="12930" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
+    <workbookView xWindow="54660" yWindow="6470" windowWidth="20750" windowHeight="15050" activeTab="1" xr2:uid="{6C567CA9-0E11-4C72-97D0-DE6EA1E5BA47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Shares</t>
   </si>
@@ -193,6 +193,69 @@
   </si>
   <si>
     <t>Net Origination</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Retail units sold</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Finance Receivables</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>Securitizations</t>
+  </si>
+  <si>
+    <t>Vehicle Inventory</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
@@ -269,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -314,6 +377,12 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -338,16 +407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:rowOff>39077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80596</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -362,8 +431,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8323385" y="58615"/>
-          <a:ext cx="0" cy="5018943"/>
+          <a:off x="12145596" y="39077"/>
+          <a:ext cx="0" cy="7996115"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -388,15 +457,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>5862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>5862</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>124558</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -760,13 +829,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
@@ -777,7 +846,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>37</v>
       </c>
@@ -792,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F4" s="15"/>
       <c r="L4" s="1" t="s">
         <v>2</v>
@@ -802,7 +871,7 @@
         <v>37304.111424999996</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
@@ -817,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>39</v>
       </c>
@@ -832,7 +901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,12 +910,12 @@
         <v>42400.111424999996</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>41</v>
       </c>
@@ -858,1022 +927,1419 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B3C054-99FF-4927-A84A-EBCDF5ACDC4F}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomRight" activeCell="O51" sqref="O51:S51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="8.7109375" style="5"/>
-    <col min="19" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="22" width="8.7265625" style="5"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="1">
+      <c r="X2" s="1">
         <v>2018</v>
       </c>
-      <c r="U2" s="1">
+      <c r="Y2" s="1">
         <v>2019</v>
       </c>
-      <c r="V2" s="1">
+      <c r="Z2" s="1">
         <v>2020</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AA2" s="1">
         <v>2021</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AB2" s="1">
         <v>2022</v>
       </c>
-      <c r="Y2" s="1">
-        <f>+X2+1</f>
+      <c r="AC2" s="1">
+        <f t="shared" ref="AC2:AJ2" si="0">+AB2+1</f>
         <v>2023</v>
       </c>
-      <c r="Z2" s="1">
-        <f>+Y2+1</f>
+      <c r="AD2" s="1">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AA2" s="1">
-        <f>+Z2+1</f>
+      <c r="AE2" s="1">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AB2" s="1">
-        <f>+AA2+1</f>
+      <c r="AF2" s="1">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AC2" s="1">
-        <f>+AB2+1</f>
+      <c r="AG2" s="1">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AD2" s="1">
-        <f>+AC2+1</f>
+      <c r="AH2" s="1">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AE2" s="1">
-        <f>+AD2+1</f>
+      <c r="AI2" s="1">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AF2" s="1">
-        <f>+AE2+1</f>
+      <c r="AJ2" s="1">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="21">
+        <v>92457</v>
+      </c>
+      <c r="D3" s="21">
+        <v>107815</v>
+      </c>
+      <c r="E3" s="21">
+        <v>111949</v>
+      </c>
+      <c r="F3" s="21">
+        <v>113016</v>
+      </c>
+      <c r="G3" s="8">
+        <v>105185</v>
+      </c>
+      <c r="H3" s="8">
+        <v>117564</v>
+      </c>
+      <c r="I3" s="8">
+        <v>102570</v>
+      </c>
+      <c r="J3" s="8">
+        <v>86977</v>
+      </c>
+      <c r="K3" s="8">
+        <v>79240</v>
+      </c>
+      <c r="L3" s="8">
+        <v>76530</v>
+      </c>
+      <c r="M3" s="8">
+        <v>80987</v>
+      </c>
+      <c r="N3" s="8">
+        <v>76090</v>
+      </c>
+      <c r="O3" s="8">
+        <v>91878</v>
+      </c>
+      <c r="P3" s="8">
+        <v>101440</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>108651</v>
+      </c>
+      <c r="R3" s="8">
+        <v>114379</v>
+      </c>
+      <c r="S3" s="21">
+        <v>133898</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="X3" s="3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="AB6" s="3">
         <v>412296</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="AC6" s="3">
         <v>312847</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AD6" s="3">
         <v>416348</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="Y4" s="3">
-        <v>15819</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>17248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="Y5" s="3">
-        <v>33075</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>53360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>1961</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1949</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8">
-        <v>2411</v>
-      </c>
-      <c r="M7" s="8">
-        <v>2543</v>
-      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="T7" s="3">
-        <v>1785.0450000000001</v>
-      </c>
-      <c r="U7" s="3">
-        <v>3420.6010000000001</v>
-      </c>
-      <c r="V7" s="3">
-        <v>4741</v>
-      </c>
-      <c r="W7" s="3">
-        <v>9851</v>
-      </c>
-      <c r="X7" s="3">
-        <v>10254</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>7514</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>9681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="AC7" s="3">
+        <v>15819</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>777</v>
-      </c>
-      <c r="I8" s="8">
-        <v>610</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="8">
-        <v>720</v>
-      </c>
-      <c r="M8" s="8">
-        <v>786</v>
-      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="T8" s="3">
-        <v>73.584000000000003</v>
-      </c>
-      <c r="U8" s="3">
-        <v>267.58600000000001</v>
-      </c>
-      <c r="V8" s="3">
-        <v>445</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1920</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2609</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2504</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>230</v>
-      </c>
-      <c r="I9" s="8">
-        <v>214</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8">
-        <v>279</v>
-      </c>
-      <c r="M9" s="8">
-        <v>326</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="T9" s="3">
-        <v>96.837999999999994</v>
-      </c>
-      <c r="U9" s="3">
-        <v>251.709</v>
-      </c>
-      <c r="V9" s="3">
-        <v>401</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1043</v>
-      </c>
-      <c r="X9" s="3">
-        <v>741</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>753</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <f>+H9+H8+H7</f>
-        <v>2968</v>
-      </c>
-      <c r="I10" s="11">
-        <f>+I9+I8+I7</f>
-        <v>2773</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
-        <f>+L9+L8+L7</f>
-        <v>3410</v>
-      </c>
-      <c r="M10" s="11">
-        <f>+M9+M8+M7</f>
-        <v>3655</v>
-      </c>
-      <c r="N10" s="11">
-        <f>+N9+N8+N7</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="T10" s="9">
-        <f t="shared" ref="T10" si="0">+T9+T8+T7</f>
-        <v>1955.4670000000001</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="shared" ref="U10" si="1">+U9+U8+U7</f>
-        <v>3939.8960000000002</v>
-      </c>
-      <c r="V10" s="9">
-        <f t="shared" ref="V10" si="2">+V9+V8+V7</f>
-        <v>5587</v>
-      </c>
-      <c r="W10" s="9">
-        <f t="shared" ref="W10" si="3">+W9+W8+W7</f>
-        <v>12814</v>
-      </c>
-      <c r="X10" s="9">
-        <f>+X9+X8+X7</f>
-        <v>13604</v>
-      </c>
-      <c r="Y10" s="9">
-        <f>+Y9+Y8+Y7</f>
-        <v>10771</v>
-      </c>
-      <c r="Z10" s="9">
-        <f>+Z9+Z8+Z7</f>
-        <v>13673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="AC8" s="3">
+        <v>33075</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>53360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>1961</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1949</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1777</v>
+      </c>
+      <c r="O10" s="8">
+        <v>2175</v>
+      </c>
+      <c r="P10" s="8">
+        <v>2411</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2543</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2522</v>
+      </c>
+      <c r="S10" s="8">
+        <v>2980</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="X10" s="3">
+        <v>1785.0450000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3420.6010000000001</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>4741</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>9851</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>10254</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>7514</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>9681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>2695</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2291</v>
-      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
-        <v>2695</v>
+        <v>777</v>
       </c>
       <c r="M11" s="8">
-        <v>2848</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="T11" s="3">
-        <v>1758.758</v>
-      </c>
-      <c r="U11" s="3">
-        <v>3433.482</v>
-      </c>
-      <c r="V11" s="3">
-        <v>4793</v>
-      </c>
-      <c r="W11" s="3">
-        <v>10885</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N11" s="8">
+        <v>499</v>
+      </c>
+      <c r="O11" s="8">
+        <v>657</v>
+      </c>
+      <c r="P11" s="8">
+        <v>720</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>786</v>
+      </c>
+      <c r="R11" s="8">
+        <v>678</v>
+      </c>
+      <c r="S11" s="8">
+        <v>863</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
       <c r="X11" s="3">
-        <v>12358</v>
+        <v>73.584000000000003</v>
       </c>
       <c r="Y11" s="3">
-        <v>9047</v>
+        <v>267.58600000000001</v>
       </c>
       <c r="Z11" s="3">
-        <v>10797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1920</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>2609</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>2504</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <f>+H10-H11</f>
-        <v>273</v>
-      </c>
-      <c r="I12" s="8">
-        <f>+I10-I11</f>
-        <v>482</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8">
-        <f>+L10-L11</f>
-        <v>715</v>
+        <v>230</v>
       </c>
       <c r="M12" s="8">
-        <f>+M10-M11</f>
-        <v>807</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="T12" s="3">
-        <f t="shared" ref="T12" si="4">+T10-T11</f>
-        <v>196.70900000000006</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" ref="U12" si="5">+U10-U11</f>
-        <v>506.41400000000021</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" ref="V12" si="6">+V10-V11</f>
-        <v>794</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" ref="W12" si="7">+W10-W11</f>
-        <v>1929</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N12" s="8">
+        <v>148</v>
+      </c>
+      <c r="O12" s="8">
+        <v>229</v>
+      </c>
+      <c r="P12" s="8">
+        <v>279</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>326</v>
+      </c>
+      <c r="R12" s="8">
+        <v>317</v>
+      </c>
+      <c r="S12" s="8">
+        <v>389</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
       <c r="X12" s="3">
-        <f>+X10-X11</f>
-        <v>1246</v>
+        <v>96.837999999999994</v>
       </c>
       <c r="Y12" s="3">
-        <f>+Y10-Y11</f>
-        <v>1724</v>
+        <v>251.709</v>
       </c>
       <c r="Z12" s="3">
-        <f>+Z10-Z11</f>
-        <v>2876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>455</v>
-      </c>
-      <c r="I13" s="8">
-        <v>433</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8">
-        <v>455</v>
-      </c>
-      <c r="M13" s="8">
-        <v>470</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="T13" s="3">
-        <v>425.25799999999998</v>
-      </c>
-      <c r="U13" s="3">
-        <v>786.71699999999998</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1126</v>
-      </c>
-      <c r="W13" s="3">
-        <v>2033</v>
-      </c>
-      <c r="X13" s="3">
-        <v>2736</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>1796</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1043</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>741</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>753</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <f>+L12+L11+L10</f>
+        <v>2968</v>
+      </c>
+      <c r="M13" s="11">
+        <f>+M12+M11+M10</f>
+        <v>2773</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" ref="N13" si="1">+N12+N11+N10</f>
+        <v>2424</v>
+      </c>
+      <c r="O13" s="11">
+        <f>+O12+O11+O10</f>
+        <v>3061</v>
+      </c>
+      <c r="P13" s="11">
+        <f>+P12+P11+P10</f>
+        <v>3410</v>
+      </c>
+      <c r="Q13" s="11">
+        <f>+Q12+Q11+Q10</f>
+        <v>3655</v>
+      </c>
+      <c r="R13" s="11">
+        <f>+R12+R11+R10</f>
+        <v>3517</v>
+      </c>
+      <c r="S13" s="11">
+        <f>+S12+S11+S10</f>
+        <v>4232</v>
+      </c>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="X13" s="9">
+        <f t="shared" ref="X13" si="2">+X12+X11+X10</f>
+        <v>1955.4670000000001</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" ref="Y13" si="3">+Y12+Y11+Y10</f>
+        <v>3939.8960000000002</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" ref="Z13" si="4">+Z12+Z11+Z10</f>
+        <v>5587</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" ref="AA13" si="5">+AA12+AA11+AA10</f>
+        <v>12814</v>
+      </c>
+      <c r="AB13" s="9">
+        <f>+AB12+AB11+AB10</f>
+        <v>13604</v>
+      </c>
+      <c r="AC13" s="9">
+        <f>+AC12+AC11+AC10</f>
+        <v>10771</v>
+      </c>
+      <c r="AD13" s="9">
+        <f>+AD12+AD11+AD10</f>
+        <v>13673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <f>+H12-H13</f>
-        <v>-182</v>
-      </c>
-      <c r="I14" s="8">
-        <f>+I12-I13</f>
-        <v>49</v>
-      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8">
-        <f>+L12-L13</f>
-        <v>260</v>
+        <v>2695</v>
       </c>
       <c r="M14" s="8">
-        <f>+M12-M13</f>
-        <v>337</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="T14" s="3">
-        <f t="shared" ref="T14" si="8">+T12-T13</f>
-        <v>-228.54899999999992</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" ref="U14" si="9">+U12-U13</f>
-        <v>-280.30299999999977</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" ref="V14" si="10">+V12-V13</f>
-        <v>-332</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" ref="W14" si="11">+W12-W13</f>
-        <v>-104</v>
-      </c>
+        <v>2291</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2470</v>
+      </c>
+      <c r="P14" s="8">
+        <v>2695</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2848</v>
+      </c>
+      <c r="R14" s="8">
+        <v>2784</v>
+      </c>
+      <c r="S14" s="8">
+        <v>3303</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
       <c r="X14" s="3">
-        <f>+X12-X13</f>
-        <v>-1490</v>
+        <v>1758.758</v>
       </c>
       <c r="Y14" s="3">
-        <f>+Y12-Y13</f>
-        <v>-72</v>
+        <v>3433.482</v>
       </c>
       <c r="Z14" s="3">
-        <f>+Z12-Z13</f>
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4793</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>10885</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>12358</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>9047</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>10797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <f>-173-1-35</f>
-        <v>-209</v>
-      </c>
-      <c r="I15" s="8">
-        <v>-153</v>
-      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8">
-        <f>-173-1-35</f>
-        <v>-209</v>
+        <f>+L13-L14</f>
+        <v>273</v>
       </c>
       <c r="M15" s="8">
-        <v>-157</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="T15" s="3">
-        <v>-25.018000000000001</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-80.605999999999995</v>
-      </c>
-      <c r="V15" s="3">
-        <v>-131</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-176</v>
-      </c>
+        <f>+M13-M14</f>
+        <v>482</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" ref="N15" si="6">+N13-N14</f>
+        <v>402</v>
+      </c>
+      <c r="O15" s="8">
+        <f>+O13-O14</f>
+        <v>591</v>
+      </c>
+      <c r="P15" s="8">
+        <f>+P13-P14</f>
+        <v>715</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>+Q13-Q14</f>
+        <v>807</v>
+      </c>
+      <c r="R15" s="8">
+        <f>+R13-R14</f>
+        <v>733</v>
+      </c>
+      <c r="S15" s="8">
+        <f>+S13-S14</f>
+        <v>929</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
       <c r="X15" s="3">
-        <v>-486</v>
+        <f t="shared" ref="X15" si="7">+X13-X14</f>
+        <v>196.70900000000006</v>
       </c>
       <c r="Y15" s="3">
-        <v>-632</v>
+        <f t="shared" ref="Y15" si="8">+Y13-Y14</f>
+        <v>506.41400000000021</v>
       </c>
       <c r="Z15" s="3">
-        <v>-651</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z15" si="9">+Z13-Z14</f>
+        <v>794</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15" si="10">+AA13-AA14</f>
+        <v>1929</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>+AB13-AB14</f>
+        <v>1246</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>+AC13-AC14</f>
+        <v>1724</v>
+      </c>
+      <c r="AD15" s="3">
+        <f>+AD13-AD14</f>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <f>+H14+H15</f>
-        <v>-391</v>
-      </c>
-      <c r="I16" s="8">
-        <f>+I14+I15</f>
-        <v>-104</v>
-      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8">
-        <f>+L14+L15</f>
-        <v>51</v>
+        <v>455</v>
       </c>
       <c r="M16" s="8">
-        <f>+M14+M15</f>
-        <v>180</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="T16" s="8">
-        <f t="shared" ref="T16" si="12">+T14+T15</f>
-        <v>-253.56699999999992</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" ref="U16" si="13">+U14+U15</f>
-        <v>-360.90899999999976</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" ref="V16" si="14">+V14+V15</f>
-        <v>-463</v>
-      </c>
-      <c r="W16" s="8">
-        <f t="shared" ref="W16" si="15">+W14+W15</f>
-        <v>-280</v>
-      </c>
-      <c r="X16" s="8">
-        <f t="shared" ref="X16:Z16" si="16">+X14+X15</f>
-        <v>-1976</v>
-      </c>
-      <c r="Y16" s="8">
-        <f t="shared" si="16"/>
-        <v>-704</v>
-      </c>
-      <c r="Z16" s="8">
-        <f t="shared" si="16"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="N16" s="8">
+        <v>439</v>
+      </c>
+      <c r="O16" s="8">
+        <v>456</v>
+      </c>
+      <c r="P16" s="8">
+        <v>455</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>470</v>
+      </c>
+      <c r="R16" s="8">
+        <v>494</v>
+      </c>
+      <c r="S16" s="8">
+        <v>535</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="X16" s="3">
+        <v>425.25799999999998</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>786.71699999999998</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1126</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>2033</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>2736</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1796</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <f>1+30</f>
-        <v>31</v>
-      </c>
-      <c r="I17" s="8">
-        <v>29</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8">
-        <f>1+30</f>
-        <v>31</v>
+        <f>+L15-L16</f>
+        <v>-182</v>
       </c>
       <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
+        <f>+M15-M16</f>
+        <v>49</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" ref="N17" si="11">+N15-N16</f>
+        <v>-37</v>
+      </c>
+      <c r="O17" s="8">
+        <f>+O15-O16</f>
+        <v>135</v>
+      </c>
+      <c r="P17" s="8">
+        <f>+P15-P16</f>
+        <v>260</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>+Q15-Q16</f>
+        <v>337</v>
+      </c>
+      <c r="R17" s="8">
+        <f>+R15-R16</f>
+        <v>239</v>
+      </c>
+      <c r="S17" s="8">
+        <f>+S15-S16</f>
+        <v>394</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
       <c r="X17" s="3">
-        <v>0</v>
+        <f t="shared" ref="X17" si="12">+X15-X16</f>
+        <v>-228.54899999999992</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <f t="shared" ref="Y17" si="13">+Y15-Y16</f>
+        <v>-280.30299999999977</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Z17" si="14">+Z15-Z16</f>
+        <v>-332</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" ref="AA17" si="15">+AA15-AA16</f>
+        <v>-104</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>+AB15-AB16</f>
+        <v>-1490</v>
+      </c>
+      <c r="AC17" s="3">
+        <f>+AC15-AC16</f>
+        <v>-72</v>
+      </c>
+      <c r="AD17" s="3">
+        <f>+AD15-AD16</f>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <f>+H16-H17</f>
-        <v>-422</v>
-      </c>
-      <c r="I18" s="8">
-        <f>+I16-I17</f>
-        <v>-133</v>
-      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8">
-        <f>+L16-L17</f>
-        <v>20</v>
+        <f>-173-1-35</f>
+        <v>-209</v>
       </c>
       <c r="M18" s="8">
-        <f>+M16-M17</f>
-        <v>180</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="T18" s="8">
-        <f t="shared" ref="T18" si="17">+T16-T17</f>
-        <v>-253.56699999999992</v>
-      </c>
-      <c r="U18" s="8">
-        <f t="shared" ref="U18" si="18">+U16-U17</f>
-        <v>-360.90899999999976</v>
-      </c>
-      <c r="V18" s="8">
-        <f t="shared" ref="V18" si="19">+V16-V17</f>
-        <v>-463</v>
-      </c>
-      <c r="W18" s="8">
-        <f t="shared" ref="W18" si="20">+W16-W17</f>
-        <v>-280</v>
-      </c>
-      <c r="X18" s="8">
-        <f t="shared" ref="X18:Z18" si="21">+X16-X17</f>
-        <v>-1976</v>
-      </c>
-      <c r="Y18" s="8">
-        <f t="shared" si="21"/>
-        <v>-704</v>
-      </c>
-      <c r="Z18" s="8">
-        <f t="shared" si="21"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-153</v>
+      </c>
+      <c r="N18" s="8">
+        <f>-165+1</f>
+        <v>-164</v>
+      </c>
+      <c r="O18" s="8">
+        <f>-173+87</f>
+        <v>-86</v>
+      </c>
+      <c r="P18" s="8">
+        <f>-173-1-35</f>
+        <v>-209</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>-157</v>
+      </c>
+      <c r="R18" s="8">
+        <f>-148+50</f>
+        <v>-98</v>
+      </c>
+      <c r="S18" s="8">
+        <f>-139+122</f>
+        <v>-17</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="X18" s="3">
+        <v>-25.018000000000001</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-80.605999999999995</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-131</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-176</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-486</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-632</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-651</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="12">
-        <f>+H18/H20</f>
-        <v>-3.9728116586017963</v>
-      </c>
-      <c r="I19" s="12">
-        <f>+I18/I20</f>
-        <v>-0.64576272832325032</v>
-      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="12">
-        <f>+L18/L20</f>
-        <v>0.1556844276651228</v>
-      </c>
-      <c r="M19" s="12">
-        <f>+M18/M20</f>
-        <v>1.3477593500804912</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="T19" s="12">
-        <f t="shared" ref="T19" si="22">+T18/T20</f>
-        <v>-8.440135805345669</v>
-      </c>
-      <c r="U19" s="12">
-        <f t="shared" ref="U19" si="23">+U18/U20</f>
-        <v>-7.7039938523277849</v>
-      </c>
-      <c r="V19" s="12">
-        <f t="shared" ref="V19" si="24">+V18/V20</f>
-        <v>-7.1251596620550632</v>
-      </c>
-      <c r="W19" s="12">
-        <f t="shared" ref="W19" si="25">+W18/W20</f>
-        <v>-3.3814383189420925</v>
-      </c>
-      <c r="X19" s="12">
-        <f t="shared" ref="X19:Z19" si="26">+X18/X20</f>
-        <v>-19.597730789066528</v>
-      </c>
-      <c r="Y19" s="12">
-        <f t="shared" si="26"/>
-        <v>-3.5098565146725962</v>
-      </c>
-      <c r="Z19" s="12">
-        <f t="shared" si="26"/>
-        <v>2.6549475818041541</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="8">
+        <f>+L17+L18</f>
+        <v>-391</v>
+      </c>
+      <c r="M19" s="8">
+        <f>+M17+M18</f>
+        <v>-104</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" ref="N19" si="16">+N17+N18</f>
+        <v>-201</v>
+      </c>
+      <c r="O19" s="8">
+        <f>+O17+O18</f>
+        <v>49</v>
+      </c>
+      <c r="P19" s="8">
+        <f>+P17+P18</f>
+        <v>51</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>+Q17+Q18</f>
+        <v>180</v>
+      </c>
+      <c r="R19" s="8">
+        <f>+R17+R18</f>
+        <v>141</v>
+      </c>
+      <c r="S19" s="8">
+        <f>+S17+S18</f>
+        <v>377</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="X19" s="8">
+        <f t="shared" ref="X19" si="17">+X17+X18</f>
+        <v>-253.56699999999992</v>
+      </c>
+      <c r="Y19" s="8">
+        <f t="shared" ref="Y19" si="18">+Y17+Y18</f>
+        <v>-360.90899999999976</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" ref="Z19" si="19">+Z17+Z18</f>
+        <v>-463</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" ref="AA19" si="20">+AA17+AA18</f>
+        <v>-280</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" ref="AB19:AD19" si="21">+AB17+AB18</f>
+        <v>-1976</v>
+      </c>
+      <c r="AC19" s="8">
+        <f t="shared" si="21"/>
+        <v>-704</v>
+      </c>
+      <c r="AD19" s="8">
+        <f t="shared" si="21"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <v>106.22199999999999</v>
-      </c>
-      <c r="I20" s="8">
-        <v>205.958</v>
-      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8">
+        <f>1+30</f>
+        <v>31</v>
+      </c>
+      <c r="M20" s="8">
+        <v>29</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>21</v>
+      </c>
+      <c r="P20" s="8">
+        <f>1+30</f>
+        <v>31</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>80</v>
+      </c>
+      <c r="S20" s="8">
+        <v>157</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
+        <f>+L19-L20</f>
+        <v>-422</v>
+      </c>
+      <c r="M21" s="8">
+        <f>+M19-M20</f>
+        <v>-133</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" ref="N21" si="22">+N19-N20</f>
+        <v>-201</v>
+      </c>
+      <c r="O21" s="8">
+        <f>+O19-O20</f>
+        <v>28</v>
+      </c>
+      <c r="P21" s="8">
+        <f>+P19-P20</f>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>+Q19-Q20</f>
+        <v>180</v>
+      </c>
+      <c r="R21" s="8">
+        <f>+R19-R20</f>
+        <v>61</v>
+      </c>
+      <c r="S21" s="8">
+        <f>+S19-S20</f>
+        <v>220</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="X21" s="8">
+        <f t="shared" ref="X21" si="23">+X19-X20</f>
+        <v>-253.56699999999992</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" ref="Y21" si="24">+Y19-Y20</f>
+        <v>-360.90899999999976</v>
+      </c>
+      <c r="Z21" s="8">
+        <f t="shared" ref="Z21" si="25">+Z19-Z20</f>
+        <v>-463</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" ref="AA21" si="26">+AA19-AA20</f>
+        <v>-280</v>
+      </c>
+      <c r="AB21" s="8">
+        <f t="shared" ref="AB21:AD21" si="27">+AB19-AB20</f>
+        <v>-1976</v>
+      </c>
+      <c r="AC21" s="8">
+        <f t="shared" si="27"/>
+        <v>-704</v>
+      </c>
+      <c r="AD21" s="8">
+        <f t="shared" si="27"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="12">
+        <f>+L21/L23</f>
+        <v>-3.9728116586017963</v>
+      </c>
+      <c r="M22" s="12">
+        <f>+M21/M23</f>
+        <v>-0.64576272832325032</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" ref="N22" si="28">+N21/N23</f>
+        <v>-1.7614582420471474</v>
+      </c>
+      <c r="O22" s="12">
+        <f>+O21/O23</f>
+        <v>0.13192674296429968</v>
+      </c>
+      <c r="P22" s="12">
+        <f>+P21/P23</f>
+        <v>0.1556844276651228</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>+Q21/Q23</f>
+        <v>1.3477593500804912</v>
+      </c>
+      <c r="R22" s="12">
+        <f>+R21/R23</f>
+        <v>0.43615355465147038</v>
+      </c>
+      <c r="S22" s="12">
+        <f>+S21/S23</f>
+        <v>1.5429176572899355</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="X22" s="12">
+        <f t="shared" ref="X22" si="29">+X21/X23</f>
+        <v>-8.440135805345669</v>
+      </c>
+      <c r="Y22" s="12">
+        <f t="shared" ref="Y22" si="30">+Y21/Y23</f>
+        <v>-7.7039938523277849</v>
+      </c>
+      <c r="Z22" s="12">
+        <f t="shared" ref="Z22" si="31">+Z21/Z23</f>
+        <v>-7.1251596620550632</v>
+      </c>
+      <c r="AA22" s="12">
+        <f t="shared" ref="AA22" si="32">+AA21/AA23</f>
+        <v>-3.3814383189420925</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" ref="AB22:AD22" si="33">+AB21/AB23</f>
+        <v>-19.597730789066528</v>
+      </c>
+      <c r="AC22" s="12">
+        <f t="shared" si="33"/>
+        <v>-3.5098565146725962</v>
+      </c>
+      <c r="AD22" s="12">
+        <f t="shared" si="33"/>
+        <v>2.6549475818041541</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <v>106.22199999999999</v>
+      </c>
+      <c r="M23" s="8">
+        <v>205.958</v>
+      </c>
+      <c r="N23" s="8">
+        <v>114.11</v>
+      </c>
+      <c r="O23" s="8">
+        <v>212.239</v>
+      </c>
+      <c r="P23" s="8">
         <v>128.465</v>
       </c>
-      <c r="M20" s="8">
+      <c r="Q23" s="8">
         <v>133.55500000000001</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="T20" s="3">
+      <c r="R23" s="8">
+        <v>139.85900000000001</v>
+      </c>
+      <c r="S23" s="8">
+        <v>142.58699999999999</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="X23" s="3">
         <v>30.042999999999999</v>
       </c>
-      <c r="U20" s="3">
+      <c r="Y23" s="3">
         <v>46.847000000000001</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Z23" s="3">
         <v>64.980999999999995</v>
       </c>
-      <c r="W20" s="3">
+      <c r="AA23" s="3">
         <v>82.805000000000007</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AB23" s="3">
         <v>100.828</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AC23" s="3">
         <v>200.578</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AD23" s="3">
         <v>132.20599999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="6">
-        <f>+L10/H10-1</f>
+      <c r="P26" s="6">
+        <f>+P13/L13-1</f>
         <v>0.14892183288409711</v>
       </c>
-      <c r="M23" s="6">
-        <f>+M10/I10-1</f>
+      <c r="Q26" s="6">
+        <f>+Q13/M13-1</f>
         <v>0.31806707536963574</v>
       </c>
-      <c r="U23" s="18">
-        <f t="shared" ref="U23:Z23" si="27">+U10/T10-1</f>
+      <c r="R26" s="6">
+        <f>+R13/N13-1</f>
+        <v>0.45090759075907583</v>
+      </c>
+      <c r="S26" s="6">
+        <f>+S13/O13-1</f>
+        <v>0.38255472067951657</v>
+      </c>
+      <c r="Y26" s="18">
+        <f t="shared" ref="Y26:AC26" si="34">+Y13/X13-1</f>
         <v>1.0148107843292675</v>
       </c>
-      <c r="V23" s="18">
-        <f t="shared" si="27"/>
+      <c r="Z26" s="18">
+        <f t="shared" si="34"/>
         <v>0.41805773553413594</v>
       </c>
-      <c r="W23" s="18">
-        <f t="shared" si="27"/>
+      <c r="AA26" s="18">
+        <f t="shared" si="34"/>
         <v>1.2935385716842669</v>
       </c>
-      <c r="X23" s="18">
-        <f t="shared" si="27"/>
+      <c r="AB26" s="18">
+        <f t="shared" si="34"/>
         <v>6.1651318869985872E-2</v>
       </c>
-      <c r="Y23" s="18">
-        <f t="shared" si="27"/>
+      <c r="AC26" s="18">
+        <f t="shared" si="34"/>
         <v>-0.20824757424286977</v>
       </c>
-      <c r="Z23" s="18">
-        <f>+Z10/Y10-1</f>
+      <c r="AD26" s="18">
+        <f>+AD13/AC13-1</f>
         <v>0.26942716553709034</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>33</v>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" ref="L27:O27" si="35">+L15/L13</f>
+        <v>9.1981132075471692E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="35"/>
+        <v>0.1738189686260368</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="35"/>
+        <v>0.16584158415841585</v>
+      </c>
+      <c r="O27" s="6">
+        <f>+O15/O13</f>
+        <v>0.19307415877164325</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:S27" si="36">+P15/P13</f>
+        <v>0.20967741935483872</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="36"/>
+        <v>0.22079343365253079</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="36"/>
+        <v>0.20841626386124537</v>
+      </c>
+      <c r="S27" s="6">
+        <f t="shared" si="36"/>
+        <v>0.21951795841209829</v>
+      </c>
+      <c r="X27" s="6">
+        <f t="shared" ref="X27" si="37">+X15/X13</f>
+        <v>0.100594384870724</v>
+      </c>
+      <c r="Y27" s="6">
+        <f t="shared" ref="Y27:AD27" si="38">+Y15/Y13</f>
+        <v>0.12853486487968216</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="38"/>
+        <v>0.14211562555933416</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="38"/>
+        <v>0.15053847354456062</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="38"/>
+        <v>9.1590708615113203E-2</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="38"/>
+        <v>0.16005941880976696</v>
+      </c>
+      <c r="AD27" s="6">
+        <f t="shared" si="38"/>
+        <v>0.21034154903825056</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8">
+        <f>1858+46</f>
+        <v>1904</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1884,40 +2350,23 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8">
-        <v>455</v>
-      </c>
+      <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="T30" s="3">
-        <v>-414.34</v>
-      </c>
-      <c r="U30" s="3">
-        <v>-757.13400000000001</v>
-      </c>
-      <c r="V30" s="3">
-        <v>-608</v>
-      </c>
-      <c r="W30" s="3">
-        <v>-2594</v>
-      </c>
-      <c r="X30" s="3">
-        <v>-1324</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>803</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>34</v>
+      <c r="S30" s="8">
+        <v>369</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1928,92 +2377,77 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8">
-        <v>40</v>
-      </c>
+      <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="T31" s="3">
-        <v>-143.66800000000001</v>
-      </c>
-      <c r="U31" s="3">
-        <v>-230.53800000000001</v>
-      </c>
-      <c r="V31" s="3">
-        <v>-360</v>
-      </c>
-      <c r="W31" s="3">
-        <v>-557</v>
-      </c>
-      <c r="X31" s="3">
-        <v>-512</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>-87</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>-91</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11">
-        <f>+L30-L31</f>
-        <v>415</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="T32" s="9">
-        <f t="shared" ref="T32" si="28">+T30+T31</f>
-        <v>-558.00800000000004</v>
-      </c>
-      <c r="U32" s="9">
-        <f t="shared" ref="U32" si="29">+U30+U31</f>
-        <v>-987.67200000000003</v>
-      </c>
-      <c r="V32" s="9">
-        <f t="shared" ref="V32" si="30">+V30+V31</f>
-        <v>-968</v>
-      </c>
-      <c r="W32" s="9">
-        <f t="shared" ref="W32" si="31">+W30+W31</f>
-        <v>-3151</v>
-      </c>
-      <c r="X32" s="9">
-        <f>+X30+X31</f>
-        <v>-1836</v>
-      </c>
-      <c r="Y32" s="9">
-        <f>+Y30+Y31</f>
-        <v>716</v>
-      </c>
-      <c r="Z32" s="9">
-        <f>+Z30+Z31</f>
-        <v>827</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="8">
+        <v>737</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8">
+        <v>1503</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8">
+        <v>475</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+    </row>
+    <row r="34" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2031,31 +2465,16 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="T34" s="3">
-        <v>-1259.539</v>
-      </c>
-      <c r="U34" s="3">
-        <v>-2625.3510000000001</v>
-      </c>
-      <c r="V34" s="3">
-        <v>-3579</v>
-      </c>
-      <c r="W34" s="3">
-        <v>-7306</v>
-      </c>
-      <c r="X34" s="3">
-        <v>-7214</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>-6041</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>-8329</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="8">
+        <v>149</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+    </row>
+    <row r="35" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2073,74 +2492,640 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="T35" s="3">
+      <c r="S35" s="8">
+        <v>2743</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+    </row>
+    <row r="36" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8">
+        <v>430</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8">
+        <f>35+2</f>
+        <v>37</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+    </row>
+    <row r="38" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8">
+        <v>531</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8">
+        <f>SUM(S29:S38)</f>
+        <v>8878</v>
+      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+    </row>
+    <row r="41" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8">
+        <v>836</v>
+      </c>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8">
+        <f>308+5269+64</f>
+        <v>5641</v>
+      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8">
+        <v>139</v>
+      </c>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8">
+        <v>402</v>
+      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8">
+        <v>87</v>
+      </c>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+    </row>
+    <row r="46" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8">
+        <v>1773</v>
+      </c>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+    </row>
+    <row r="47" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8">
+        <f>SUM(S41:S46)</f>
+        <v>8878</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+    </row>
+    <row r="49" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8">
+        <v>101</v>
+      </c>
+      <c r="P49" s="8">
+        <v>455</v>
+      </c>
+      <c r="Q49" s="8">
+        <f>858-P49-O49</f>
+        <v>302</v>
+      </c>
+      <c r="R49" s="8">
+        <f>918-Q49-P49-O49</f>
+        <v>60</v>
+      </c>
+      <c r="S49" s="8">
+        <v>232</v>
+      </c>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="X49" s="3">
+        <v>-414.34</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>-757.13400000000001</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>-608</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>-2594</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>-1324</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>803</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8">
+        <v>18</v>
+      </c>
+      <c r="P50" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="8">
+        <f>67-P50-O50</f>
+        <v>9</v>
+      </c>
+      <c r="R50" s="8">
+        <f>91-Q50-P50-O50</f>
+        <v>24</v>
+      </c>
+      <c r="S50" s="8">
+        <v>27</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="X50" s="3">
+        <v>-143.66800000000001</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>-230.53800000000001</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>-360</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>-557</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>-512</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>-87</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11">
+        <f>+O49-O50</f>
+        <v>83</v>
+      </c>
+      <c r="P51" s="11">
+        <f>+P49-P50</f>
+        <v>415</v>
+      </c>
+      <c r="Q51" s="11">
+        <f>+Q49-Q50</f>
+        <v>293</v>
+      </c>
+      <c r="R51" s="11">
+        <f>+R49-R50</f>
+        <v>36</v>
+      </c>
+      <c r="S51" s="11">
+        <f>+S49-S50</f>
+        <v>205</v>
+      </c>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="X51" s="9">
+        <f t="shared" ref="X51" si="39">+X49+X50</f>
+        <v>-558.00800000000004</v>
+      </c>
+      <c r="Y51" s="9">
+        <f t="shared" ref="Y51" si="40">+Y49+Y50</f>
+        <v>-987.67200000000003</v>
+      </c>
+      <c r="Z51" s="9">
+        <f t="shared" ref="Z51" si="41">+Z49+Z50</f>
+        <v>-968</v>
+      </c>
+      <c r="AA51" s="9">
+        <f t="shared" ref="AA51" si="42">+AA49+AA50</f>
+        <v>-3151</v>
+      </c>
+      <c r="AB51" s="9">
+        <f>+AB49+AB50</f>
+        <v>-1836</v>
+      </c>
+      <c r="AC51" s="9">
+        <f>+AC49+AC50</f>
+        <v>716</v>
+      </c>
+      <c r="AD51" s="9">
+        <f>+AD49+AD50</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="X53" s="3">
+        <v>-1259.539</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>-2625.3510000000001</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>-3579</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>-7306</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>-7214</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>-6041</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>-8329</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="X54" s="3">
         <v>1633.519</v>
       </c>
-      <c r="U35" s="3">
+      <c r="Y54" s="3">
         <v>2643.9119999999998</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Z54" s="3">
         <v>3634</v>
       </c>
-      <c r="W35" s="3">
+      <c r="AA54" s="3">
         <v>7391</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AB54" s="3">
         <v>6297</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AC54" s="3">
         <v>6594</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AD54" s="3">
         <v>8805</v>
       </c>
     </row>
-    <row r="36" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
+    <row r="55" spans="2:30" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="T36" s="9">
-        <f t="shared" ref="T36" si="32">+T34+T35</f>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="X55" s="9">
+        <f t="shared" ref="X55" si="43">+X53+X54</f>
         <v>373.98</v>
       </c>
-      <c r="U36" s="9">
-        <f t="shared" ref="U36" si="33">+U34+U35</f>
+      <c r="Y55" s="9">
+        <f t="shared" ref="Y55" si="44">+Y53+Y54</f>
         <v>18.560999999999694</v>
       </c>
-      <c r="V36" s="9">
-        <f t="shared" ref="V36" si="34">+V34+V35</f>
+      <c r="Z55" s="9">
+        <f t="shared" ref="Z55" si="45">+Z53+Z54</f>
         <v>55</v>
       </c>
-      <c r="W36" s="9">
-        <f t="shared" ref="W36" si="35">+W34+W35</f>
+      <c r="AA55" s="9">
+        <f t="shared" ref="AA55" si="46">+AA53+AA54</f>
         <v>85</v>
       </c>
-      <c r="X36" s="9">
-        <f>+X34+X35</f>
+      <c r="AB55" s="9">
+        <f>+AB53+AB54</f>
         <v>-917</v>
       </c>
-      <c r="Y36" s="9">
-        <f>+Y34+Y35</f>
+      <c r="AC55" s="9">
+        <f>+AC53+AC54</f>
         <v>553</v>
       </c>
-      <c r="Z36" s="9">
-        <f>+Z34+Z35</f>
+      <c r="AD55" s="9">
+        <f>+AD53+AD54</f>
         <v>476</v>
       </c>
     </row>
